--- a/Metro-Study/Other data/illustration of df.xlsx
+++ b/Metro-Study/Other data/illustration of df.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/holger/Documents/Python/SDS-egne-ting/Metro-Projekt/Code/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A6EC88-C781-834F-9319-EF223A703048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Address</t>
   </si>
@@ -88,23 +82,23 @@
     <t>(55.719198, 12.57804)</t>
   </si>
   <si>
-    <t>{'Distance': 0.6095724783548715, 'Metro': 'Rosenørns Allé 17 1970 Frederiksberg C ', 'Railroad': 'Frederiksbergbanen', 'Opening Date': 2003, 'Cityring': 0}</t>
-  </si>
-  <si>
-    <t>{'Distance': 0.8403550180969337, 'Metro': 'Carl Jacobsens Vej 19 2500 Valby', 'Railroad': 'Ringbanen og Køge Bugt-banen', 'Opening Date': 2006, 'Cityring': 0}</t>
-  </si>
-  <si>
-    <t>{'Distance': 0.9889381894173884, 'Metro': 'Reersøgade 2100 København Ø', 'Railroad': 'Cityringen', 'Opening Date': 2019, 'Cityring': 1}</t>
-  </si>
-  <si>
-    <t>(...)</t>
+    <t>{'Name': 'Forum Station', 'Distance': 0.6095724783548715, 'Address': 'Rosenørns Allé 17 1970 Frederiksberg C ', 'Railroad': 'Frederiksbergbanen', 'Opening Date': 2003, 'Cityring': 0}</t>
+  </si>
+  <si>
+    <t>{'Name': 'Enghave Plads Station', 'Distance': 1.8643476902185103, 'Address': 'Enghave Plads 11A 1670 København V', 'Railroad': 'Cityringen', 'Opening Date': 2019, 'Cityring': 1}</t>
+  </si>
+  <si>
+    <t>{'Name': 'Poul Henningsens Plads Station', 'Distance': 0.9889381894173884, 'Address': 'Reersøgade 2100 København Ø', 'Railroad': 'Cityringen', 'Opening Date': 2019, 'Cityring': 1}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,23 +107,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Garamond"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Garamond"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Garamond"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,88 +132,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -238,60 +150,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -333,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,27 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,24 +274,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,188 +449,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="2.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="1"/>
-    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="1"/>
-    <col min="12" max="12" width="45.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="B3" s="5">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="7">
+      <c r="F2" s="2">
         <v>34376</v>
       </c>
-      <c r="H3" s="6">
+      <c r="G2">
         <v>300710</v>
       </c>
-      <c r="I3" s="6">
-        <v>0.30070999999999998</v>
-      </c>
-      <c r="J3" s="6">
-        <v>5.8959999999999999</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="H2">
+        <v>0.30071</v>
+      </c>
+      <c r="I2">
+        <v>5.896</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="B4" s="5">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="7">
+      <c r="F3" s="2">
         <v>34376</v>
       </c>
-      <c r="H4" s="6">
+      <c r="G3">
         <v>344101</v>
       </c>
-      <c r="I4" s="6">
-        <v>0.34410099999999999</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="H3">
+        <v>0.344101</v>
+      </c>
+      <c r="I3">
         <v>5.55</v>
       </c>
-      <c r="K4" s="6">
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="B5" s="5">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7">
+      <c r="F4" s="2">
         <v>34376</v>
       </c>
-      <c r="H5" s="6">
+      <c r="G4">
         <v>1090300</v>
       </c>
-      <c r="I5" s="6">
+      <c r="H4">
         <v>1.0903</v>
       </c>
-      <c r="J5" s="6">
-        <v>7.7880000000000003</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="I4">
+        <v>7.788</v>
+      </c>
+      <c r="J4">
         <v>4</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="K4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B6:L6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Metro-Study/Other data/illustration of df.xlsx
+++ b/Metro-Study/Other data/illustration of df.xlsx
@@ -14,81 +14,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+  <si>
+    <t>estateId</t>
+  </si>
   <si>
     <t>Address</t>
   </si>
   <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>soldDate</t>
+  </si>
+  <si>
+    <t>propertyType</t>
+  </si>
+  <si>
+    <t>saleType</t>
+  </si>
+  <si>
+    <t>Price_sq_m</t>
+  </si>
+  <si>
+    <t>Rooms</t>
+  </si>
+  <si>
+    <t>sq_m</t>
+  </si>
+  <si>
+    <t>buildYear</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>guid</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>municipalityCode</t>
+  </si>
+  <si>
+    <t>estateCode</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>groupKey</t>
+  </si>
+  <si>
+    <t>canGetVR</t>
+  </si>
+  <si>
     <t>Address transformed</t>
   </si>
   <si>
+    <t>Price_mio</t>
+  </si>
+  <si>
+    <t>Price_sq_m_1000</t>
+  </si>
+  <si>
+    <t>Date_sold</t>
+  </si>
+  <si>
+    <t>Coordinates</t>
+  </si>
+  <si>
     <t>Area</t>
   </si>
   <si>
-    <t>Coordinates</t>
-  </si>
-  <si>
-    <t>Date_sold</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Price_mio</t>
-  </si>
-  <si>
-    <t>Price_sq_m_1000</t>
-  </si>
-  <si>
-    <t>Rooms</t>
-  </si>
-  <si>
     <t>Closest Metro</t>
   </si>
   <si>
-    <t>Stengade 52B, 1. 1, 2200 København N</t>
-  </si>
-  <si>
-    <t>Bryggerivej 10, 1. th, 2500 Valby</t>
-  </si>
-  <si>
-    <t>Solvænget 5, 3. tv, 2100 København Ø</t>
-  </si>
-  <si>
-    <t>Stengade 52B 2200 København N</t>
-  </si>
-  <si>
-    <t>Bryggerivej 10 2500 Valby</t>
-  </si>
-  <si>
-    <t>Solvænget 5 2100 København Ø</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Valby</t>
-  </si>
-  <si>
-    <t>Ø</t>
-  </si>
-  <si>
-    <t>(55.687083, 12.554688)</t>
-  </si>
-  <si>
-    <t>(55.660475, 12.518974)</t>
-  </si>
-  <si>
-    <t>(55.719198, 12.57804)</t>
-  </si>
-  <si>
-    <t>{'Name': 'Forum Station', 'Distance': 0.6095724783548715, 'Address': 'Rosenørns Allé 17 1970 Frederiksberg C ', 'Railroad': 'Frederiksbergbanen', 'Opening Date': 2003, 'Cityring': 0}</t>
-  </si>
-  <si>
-    <t>{'Name': 'Enghave Plads Station', 'Distance': 1.8643476902185103, 'Address': 'Enghave Plads 11A 1670 København V', 'Railroad': 'Cityringen', 'Opening Date': 2019, 'Cityring': 1}</t>
-  </si>
-  <si>
-    <t>{'Name': 'Poul Henningsens Plads Station', 'Distance': 0.9889381894173884, 'Address': 'Reersøgade 2100 København Ø', 'Railroad': 'Cityringen', 'Opening Date': 2019, 'Cityring': 1}</t>
+    <t>Sankt Thomas Alle 11, 4. th, Frederiksberg C, Frederiksberg C</t>
+  </si>
+  <si>
+    <t>Moltkesvej 61, st. th, Frederiksberg, Frederiksberg</t>
+  </si>
+  <si>
+    <t>Frederiksberg Alle 34, 1. th, Frederiksberg C, Frederiksberg C</t>
+  </si>
+  <si>
+    <t>1992-01-23T23:00:00.000Z</t>
+  </si>
+  <si>
+    <t>1992-01-25T23:00:00.000Z</t>
+  </si>
+  <si>
+    <t>1992-02-01T23:00:00.000Z</t>
+  </si>
+  <si>
+    <t>Alm. Salg</t>
+  </si>
+  <si>
+    <t>Fam. Salg</t>
+  </si>
+  <si>
+    <t>84F87C89-05E3-48B3-BC78-A4F98E3EBE98</t>
+  </si>
+  <si>
+    <t>14DA0F87-7621-4D2F-9BC2-3020BBA58CA3</t>
+  </si>
+  <si>
+    <t>B1A007E9-0268-4131-967E-05FFAD6D503E</t>
+  </si>
+  <si>
+    <t>Frederiksberg C</t>
+  </si>
+  <si>
+    <t>Frederiksberg</t>
+  </si>
+  <si>
+    <t>Sankt Thomas Alle 11 Frederiksberg C</t>
+  </si>
+  <si>
+    <t>Moltkesvej 61 Frederiksberg</t>
+  </si>
+  <si>
+    <t>Frederiksberg Alle 34 Frederiksberg C</t>
+  </si>
+  <si>
+    <t>(55.697025, 12.593633)</t>
+  </si>
+  <si>
+    <t>(55.685596, 12.48317)</t>
+  </si>
+  <si>
+    <t>(55.681316, 12.489333)</t>
+  </si>
+  <si>
+    <t>FRB</t>
+  </si>
+  <si>
+    <t>{'Name': 'Østerport Station', 'Distance': 0.6447122142708138, 'Address': 'Oslo Plads 8 2100 København Ø', 'Railroad': 'Boulevardbanen Kystbanen Nordbanen Cityringen', 'Opening Date': 1897, 'Cityring': 1}</t>
+  </si>
+  <si>
+    <t>{'Name': 'Vanløse Station', 'Distance': 0.5174901579569277, 'Address': 'Vanløse Torv 5 2720 Vanløse', 'Railroad': 'Frederikssundbanen, Frederiksbergbanen', 'Opening Date': 2003, 'Cityring': 0}</t>
+  </si>
+  <si>
+    <t>{'Name': 'Vanløse Station', 'Distance': 0.6785910228397627, 'Address': 'Vanløse Torv 5 2720 Vanløse', 'Railroad': 'Frederikssundbanen, Frederiksbergbanen', 'Opening Date': 2003, 'Cityring': 0}</t>
   </si>
 </sst>
 </file>
@@ -450,13 +525,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,110 +562,305 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
+        <v>67849</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2">
-        <v>34376</v>
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>1824</v>
+      </c>
+      <c r="E2">
+        <v>725800</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>300710</v>
-      </c>
-      <c r="H2">
-        <v>0.30071</v>
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
       </c>
       <c r="I2">
-        <v>5.896</v>
+        <v>6598.1816</v>
       </c>
       <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>110</v>
+      </c>
+      <c r="L2">
+        <v>1904</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2">
+        <v>55.674374</v>
+      </c>
+      <c r="P2">
+        <v>12.546298</v>
+      </c>
+      <c r="Q2">
+        <v>147</v>
+      </c>
+      <c r="R2">
+        <v>198310</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" t="b">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>22</v>
+      <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2">
+        <v>0.7258</v>
+      </c>
+      <c r="X2">
+        <v>6.5981816</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>33626</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
+        <v>67848</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3">
+        <v>690000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3">
+        <v>7840.909</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>88</v>
+      </c>
+      <c r="L3">
+        <v>1949</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3">
+        <v>55.68591</v>
+      </c>
+      <c r="P3">
+        <v>12.508274</v>
+      </c>
+      <c r="Q3">
+        <v>147</v>
+      </c>
+      <c r="R3">
+        <v>80573</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" t="b">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2">
-        <v>34376</v>
-      </c>
-      <c r="G3">
-        <v>344101</v>
-      </c>
-      <c r="H3">
-        <v>0.344101</v>
-      </c>
-      <c r="I3">
-        <v>5.55</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
+      <c r="V3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="X3">
+        <v>7.840909</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>33628</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+        <v>67847</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2">
-        <v>34376</v>
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>1820</v>
+      </c>
+      <c r="E4">
+        <v>1250000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>1090300</v>
-      </c>
-      <c r="H4">
-        <v>1.0903</v>
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
       </c>
       <c r="I4">
-        <v>7.788</v>
+        <v>6188.1187</v>
       </c>
       <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>202</v>
+      </c>
+      <c r="L4">
+        <v>1872</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4">
+        <v>55.673645</v>
+      </c>
+      <c r="P4">
+        <v>12.545514</v>
+      </c>
+      <c r="Q4">
+        <v>147</v>
+      </c>
+      <c r="R4">
+        <v>192770</v>
+      </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4">
+        <v>1.25</v>
+      </c>
+      <c r="X4">
+        <v>6.1881187</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>33635</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
